--- a/SD_ols2.xlsx
+++ b/SD_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,13 +20,118 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fund_GeoHHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund_StageHHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund_PIGHHI</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number_Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal_Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2012</t>
   </si>
   <si>
     <t xml:space="preserve"># observations</t>
@@ -50,23 +155,119 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.747)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.315)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.603)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.901)</t>
+    <t xml:space="preserve">(1.142)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.494)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.353)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.530)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.383)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.148)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.550)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.006 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.376)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.608)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.377)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.310)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.205)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.237)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.232)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.260)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.187)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.172)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.164)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.149)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.138)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.141)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.137)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.146)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.151)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.160)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.150)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.168)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.167)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.177)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.301)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.219)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.262)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.220)  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
+  <numFmts count="82">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -79,6 +280,76 @@
     <numFmt numFmtId="50009" formatCode="0.000"/>
     <numFmt numFmtId="50010" formatCode="0.000"/>
     <numFmt numFmtId="50011" formatCode="0.000"/>
+    <numFmt numFmtId="50012" formatCode="0.000"/>
+    <numFmt numFmtId="50013" formatCode="0.000"/>
+    <numFmt numFmtId="50014" formatCode="0.000"/>
+    <numFmt numFmtId="50015" formatCode="0.000"/>
+    <numFmt numFmtId="50016" formatCode="0.000"/>
+    <numFmt numFmtId="50017" formatCode="0.000"/>
+    <numFmt numFmtId="50018" formatCode="0.000"/>
+    <numFmt numFmtId="50019" formatCode="0.000"/>
+    <numFmt numFmtId="50020" formatCode="0.000"/>
+    <numFmt numFmtId="50021" formatCode="0.000"/>
+    <numFmt numFmtId="50022" formatCode="0.000"/>
+    <numFmt numFmtId="50023" formatCode="0.000"/>
+    <numFmt numFmtId="50024" formatCode="0.000"/>
+    <numFmt numFmtId="50025" formatCode="0.000"/>
+    <numFmt numFmtId="50026" formatCode="0.000"/>
+    <numFmt numFmtId="50027" formatCode="0.000"/>
+    <numFmt numFmtId="50028" formatCode="0.000"/>
+    <numFmt numFmtId="50029" formatCode="0.000"/>
+    <numFmt numFmtId="50030" formatCode="0.000"/>
+    <numFmt numFmtId="50031" formatCode="0.000"/>
+    <numFmt numFmtId="50032" formatCode="0.000"/>
+    <numFmt numFmtId="50033" formatCode="0.000"/>
+    <numFmt numFmtId="50034" formatCode="0.000"/>
+    <numFmt numFmtId="50035" formatCode="0.000"/>
+    <numFmt numFmtId="50036" formatCode="0.000"/>
+    <numFmt numFmtId="50037" formatCode="0.000"/>
+    <numFmt numFmtId="50038" formatCode="0.000"/>
+    <numFmt numFmtId="50039" formatCode="0.000"/>
+    <numFmt numFmtId="50040" formatCode="0.000"/>
+    <numFmt numFmtId="50041" formatCode="0.000"/>
+    <numFmt numFmtId="50042" formatCode="0.000"/>
+    <numFmt numFmtId="50043" formatCode="0.000"/>
+    <numFmt numFmtId="50044" formatCode="0.000"/>
+    <numFmt numFmtId="50045" formatCode="0.000"/>
+    <numFmt numFmtId="50046" formatCode="0.000"/>
+    <numFmt numFmtId="50047" formatCode="0.000"/>
+    <numFmt numFmtId="50048" formatCode="0.000"/>
+    <numFmt numFmtId="50049" formatCode="0.000"/>
+    <numFmt numFmtId="50050" formatCode="0.000"/>
+    <numFmt numFmtId="50051" formatCode="0.000"/>
+    <numFmt numFmtId="50052" formatCode="0.000"/>
+    <numFmt numFmtId="50053" formatCode="0.000"/>
+    <numFmt numFmtId="50054" formatCode="0.000"/>
+    <numFmt numFmtId="50055" formatCode="0.000"/>
+    <numFmt numFmtId="50056" formatCode="0.000"/>
+    <numFmt numFmtId="50057" formatCode="0.000"/>
+    <numFmt numFmtId="50058" formatCode="0.000"/>
+    <numFmt numFmtId="50059" formatCode="0.000"/>
+    <numFmt numFmtId="50060" formatCode="0.000"/>
+    <numFmt numFmtId="50061" formatCode="0.000"/>
+    <numFmt numFmtId="50062" formatCode="0.000"/>
+    <numFmt numFmtId="50063" formatCode="0.000"/>
+    <numFmt numFmtId="50064" formatCode="0.000"/>
+    <numFmt numFmtId="50065" formatCode="0.000"/>
+    <numFmt numFmtId="50066" formatCode="0.000"/>
+    <numFmt numFmtId="50067" formatCode="0.000"/>
+    <numFmt numFmtId="50068" formatCode="0.000"/>
+    <numFmt numFmtId="50069" formatCode="0.000"/>
+    <numFmt numFmtId="50070" formatCode="0.000"/>
+    <numFmt numFmtId="50071" formatCode="0.000"/>
+    <numFmt numFmtId="50072" formatCode="0.000"/>
+    <numFmt numFmtId="50073" formatCode="0.000"/>
+    <numFmt numFmtId="50074" formatCode="0.000"/>
+    <numFmt numFmtId="50075" formatCode="0.000"/>
+    <numFmt numFmtId="50076" formatCode="0.000"/>
+    <numFmt numFmtId="50077" formatCode="0.000"/>
+    <numFmt numFmtId="50078" formatCode="0.000"/>
+    <numFmt numFmtId="50079" formatCode="0.000"/>
+    <numFmt numFmtId="50080" formatCode="0.000"/>
+    <numFmt numFmtId="50081" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -184,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -222,22 +493,232 @@
     <xf numFmtId="50006" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50007" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50007" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50008" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50009" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50010" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50011" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50012" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50013" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50014" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50015" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50016" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50017" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50018" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50019" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50020" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50021" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50022" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50023" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50024" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50025" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50026" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50027" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50028" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50029" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50030" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50031" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50032" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50033" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50034" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50035" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50036" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50037" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50040" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50042" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50043" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50044" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50045" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50046" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50047" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50048" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50049" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50050" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50051" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50052" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50053" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50054" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50055" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50056" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50057" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50058" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50059" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50060" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50061" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50062" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50063" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50064" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50065" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50066" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50067" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50068" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50069" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50070" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50071" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50072" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50073" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50075" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50008" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50009" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50010" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50011" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -538,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -546,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.812</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.1</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="5">
@@ -570,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -578,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>-0.749</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -594,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.384</v>
+        <v>-2.299</v>
       </c>
     </row>
     <row r="9">
@@ -602,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -610,50 +1091,610 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>38</v>
+        <v>-0.368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>0.071</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.011</v>
+        <v>-0.437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>0.461</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17" t="n">
-        <v>0.865</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>0.469</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="B18" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B20" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="26" t="n">
+        <v>-0.306</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>-0.452</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="30" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="32" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="34" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="36" t="n">
+        <v>-0.059</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="38" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="40" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="42" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="44" t="n">
+        <v>-0.351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="46" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="48" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="50" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="52" t="n">
+        <v>0.322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="54" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="56" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="58" t="n">
+        <v>-0.067</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="60" t="n">
+        <v>-0.172</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="62" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="64" t="n">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="66" t="n">
+        <v>0.172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="68" t="n">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="70" t="n">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="72" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="74" t="n">
+        <v>1.013</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="76" t="n">
+        <v>-0.026</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="78" t="n">
+        <v>-1.022</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="80" t="n">
+        <v>-0.516</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="82" t="n">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="84" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="85" t="n">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="86" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="87" t="n">
+        <v>1.547</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="88" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/SD_ols2.xlsx
+++ b/SD_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,33 +20,36 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total_Investments</t>
+    <t xml:space="preserve">poly(GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(PIGHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating_Years</t>
   </si>
   <si>
     <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -155,119 +161,83 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.142)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.494)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.353)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.530)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.383)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.148)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.550)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.006 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.376)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.608)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.377)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.310)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.205)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.237)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.232)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.260)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.187)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.172)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.164)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.149)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.138)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.141)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.137)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.146)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.151)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.160)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.150)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.168)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.167)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.177)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.301)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.219)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.262)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.220)  </t>
+    <t xml:space="preserve">-0.219 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.183 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.425 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.079)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.076)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.074)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.088)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.077)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.089)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.067)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.066)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.065)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="82">
+  <numFmts count="86">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -350,6 +320,10 @@
     <numFmt numFmtId="50079" formatCode="0.000"/>
     <numFmt numFmtId="50080" formatCode="0.000"/>
     <numFmt numFmtId="50081" formatCode="0.000"/>
+    <numFmt numFmtId="50082" formatCode="0.000"/>
+    <numFmt numFmtId="50083" formatCode="0.000"/>
+    <numFmt numFmtId="50084" formatCode="0.000"/>
+    <numFmt numFmtId="50085" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -455,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -592,7 +566,10 @@
     <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50040" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50040" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -604,7 +581,7 @@
     <xf numFmtId="50043" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50044" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50044" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50045" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -703,10 +680,7 @@
     <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -718,7 +692,25 @@
     <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1019,682 +1011,527 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.214</v>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>0.158</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="n">
-        <v>0.227</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-2.299</v>
+        <v>-0.076</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="n">
-        <v>-0.368</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>51</v>
+      <c r="C11" s="61" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.437</v>
+        <v>-0.108</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.461</v>
+        <v>-0.019</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>-0.071</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>0</v>
+        <v>-0.058</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0</v>
+        <v>-0.06</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="C21" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.306</v>
+        <v>-0.064</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.452</v>
+        <v>-0.051</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="n">
+        <v>-0.051</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>0.157</v>
+        <v>-0.039</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>0.167</v>
+        <v>-0.021</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>0.25</v>
+        <v>-0.056</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="35" t="n">
+        <v>-0.051</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-0.059</v>
+        <v>-0.045</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="n">
+        <v>-0.051</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>0.498</v>
+        <v>-0.038</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="39" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>0.274</v>
+        <v>-0.012</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>0.125</v>
+        <v>-0.005</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.351</v>
+        <v>0.005</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.38</v>
+        <v>0.006</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="47" t="n">
+        <v>910</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.02</v>
+        <v>0.319</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="49" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>0.022</v>
+        <v>10.166</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="B47" s="51" t="s">
-        <v>68</v>
+      <c r="C47" s="94" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="52" t="n">
-        <v>0.322</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="54" t="n">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="56" t="n">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="58" t="n">
-        <v>-0.067</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="60" t="n">
-        <v>-0.172</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="62" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="64" t="n">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="66" t="n">
-        <v>0.172</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="68" t="n">
-        <v>0.139</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="70" t="n">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="72" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="74" t="n">
-        <v>1.013</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="76" t="n">
-        <v>-0.026</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="78" t="n">
-        <v>-1.022</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="80" t="n">
-        <v>-0.516</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="82" t="n">
-        <v>0.493</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="84" t="n">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="85" t="n">
-        <v>0.117</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="86" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="87" t="n">
-        <v>1.547</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="88" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A85:B85"/>
+  <mergeCells count="2">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
